--- a/generated_docs/WR_89754704_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89754704_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I127"/>
+  <dimension ref="A2:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29336.65</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>76.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>1581.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>12.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,11 +1033,11 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,11 +1135,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>783.3200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>9.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,32 +1475,32 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1543,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1577,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1611,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1645,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CND-XL14</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CND,eXtension Link 14in</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,11 +1679,11 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-INL1-900-FW-556-H</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>15kV,InLine,1Ph,900A,FireWdg, 477-556 Hk</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1713,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>1086.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,32 +1747,32 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-SNA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Secondary Neutral Al</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1781,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1815,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,28 +1853,28 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,28 +1887,28 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SWI-15-INL1-900-FW-556-H</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>15kV,InLine,1Ph,900A,FireWdg, 477-556 Hk</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,11 +1917,11 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1955,28 +1955,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>DEG-4-SNA</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>DEG,#4,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1985,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2019,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,32 +2053,32 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>165.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,28 +2091,28 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,18 +2125,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,18 +2159,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,32 +2223,32 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2261,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,28 +2295,28 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>CNW-FW-477-INL-SWI</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Connector,Fired Wdg, 477 InLine SWI</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>133.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SNA</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Secondary Neutral Al</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2359,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,478 +2427,478 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C67" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG10</t>
+        </is>
+      </c>
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
+        <is>
+          <t>SVD, Service Grip, 1/0</t>
+        </is>
+      </c>
+      <c r="E69" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E71" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13" t="inlineStr"/>
+      <c r="H71" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Point 47</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="inlineStr">
+        <is>
+          <t>Point 47</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="inlineStr">
+        <is>
+          <t>CNW-FW-477-INL-SWI</t>
+        </is>
+      </c>
+      <c r="C73" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D73" s="12" t="inlineStr">
+        <is>
+          <t>Connector,Fired Wdg, 477 InLine SWI</t>
+        </is>
+      </c>
+      <c r="E73" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" s="13" t="inlineStr"/>
+      <c r="H73" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Point 47</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>DEG-4-SNA</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#4,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>Point 48</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 48</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 48</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H66" s="16" t="n">
-        <v>14152.87</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7" t="inlineStr">
+      <c r="H78" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="inlineStr">
         <is>
           <t>Thursday (08/14/2025)</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B82" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C70" s="8" t="inlineStr">
+      <c r="C82" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D70" s="8" t="inlineStr">
+      <c r="D82" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E70" s="8" t="inlineStr">
+      <c r="E82" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F70" s="8" t="inlineStr">
+      <c r="F82" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G70" s="8" t="inlineStr">
+      <c r="G82" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H70" s="8" t="inlineStr">
+      <c r="H82" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DSC-24-120-D1</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>1581.12</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>1297.06</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>86.13</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DSC-24-120-D1</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>1581.12</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 61</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C77" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E77" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="10" t="inlineStr"/>
-      <c r="H77" s="11" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B78" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL</t>
-        </is>
-      </c>
-      <c r="C78" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
-        </is>
-      </c>
-      <c r="E78" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="13" t="inlineStr"/>
-      <c r="H78" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="inlineStr">
-        <is>
-          <t>ARR-10-R</t>
-        </is>
-      </c>
-      <c r="C79" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="inlineStr">
-        <is>
-          <t>ARR,10kV,Riser Pole</t>
-        </is>
-      </c>
-      <c r="E79" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10" t="inlineStr"/>
-      <c r="H79" s="11" t="n">
-        <v>66.72</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B80" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C80" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E80" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="inlineStr"/>
-      <c r="H80" s="14" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="inlineStr">
-        <is>
-          <t>BKT-ARML-S</t>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Crossarm inLin,Steel</t>
-        </is>
-      </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B82" s="12" t="inlineStr">
-        <is>
-          <t>CND-SA477</t>
-        </is>
-      </c>
-      <c r="C82" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup,Ampact 477</t>
-        </is>
-      </c>
-      <c r="E82" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="inlineStr"/>
-      <c r="H82" s="14" t="n">
-        <v>12.49</v>
       </c>
     </row>
     <row r="83">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>DEC-795AL</t>
+          <t>ANC-DSC-24-120-D1</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS</t>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2928,11 +2928,11 @@
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>2003.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2996,22 +2996,22 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>317.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ANC-DSC-24-120-D1</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -3030,22 +3030,22 @@
         </is>
       </c>
       <c r="F86" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -3064,22 +3064,22 @@
         </is>
       </c>
       <c r="F87" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -3098,11 +3098,11 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>URSR-2-DSO</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>URSR,2in,Dist Stand Off</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3166,32 +3166,32 @@
         </is>
       </c>
       <c r="F90" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>391.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3204,28 +3204,28 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3238,28 +3238,28 @@
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>BKT-ARML-S</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>BKT,Crossarm inLin,Steel</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3268,32 +3268,32 @@
         </is>
       </c>
       <c r="F93" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3302,32 +3302,32 @@
         </is>
       </c>
       <c r="F94" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" s="13" t="inlineStr"/>
       <c r="H94" s="14" t="n">
-        <v>37.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3336,32 +3336,32 @@
         </is>
       </c>
       <c r="F95" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-795AL</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#477 - #795 AL,AS</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3370,32 +3370,32 @@
         </is>
       </c>
       <c r="F96" s="13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3408,28 +3408,28 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>EQL-1-4-C-4-C-E1</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D98" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
         </is>
       </c>
       <c r="E98" s="12" t="inlineStr">
@@ -3438,32 +3438,32 @@
         </is>
       </c>
       <c r="F98" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="13" t="inlineStr"/>
       <c r="H98" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3472,32 +3472,32 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E100" s="12" t="inlineStr">
@@ -3506,22 +3506,22 @@
         </is>
       </c>
       <c r="F100" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="13" t="inlineStr"/>
       <c r="H100" s="14" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
@@ -3531,31 +3531,31 @@
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E101" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F101" s="10" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E102" s="12" t="inlineStr">
@@ -3574,17 +3574,17 @@
         </is>
       </c>
       <c r="F102" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G102" s="13" t="inlineStr"/>
       <c r="H102" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
@@ -3608,22 +3608,22 @@
         </is>
       </c>
       <c r="F103" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>POL-45-1</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 1</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3646,18 +3646,18 @@
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3676,32 +3676,32 @@
         </is>
       </c>
       <c r="F105" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3710,32 +3710,32 @@
         </is>
       </c>
       <c r="F106" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3744,32 +3744,32 @@
         </is>
       </c>
       <c r="F107" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>URSR-2-DSO</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>URSR,2in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3782,18 +3782,18 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3816,28 +3816,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3850,28 +3850,28 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>ALT-1000-HFMSG</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>1000W Halide Fldlt MultiVolt,Slipfit,Gry</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3880,32 +3880,32 @@
         </is>
       </c>
       <c r="F111" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E112" s="12" t="inlineStr">
@@ -3914,11 +3914,11 @@
         </is>
       </c>
       <c r="F112" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="13" t="inlineStr"/>
       <c r="H112" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-D34</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3948,11 +3948,11 @@
         </is>
       </c>
       <c r="F113" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B114" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D114" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E114" s="12" t="inlineStr">
@@ -3982,11 +3982,11 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" s="13" t="inlineStr"/>
       <c r="H114" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B115" s="9" t="inlineStr">
         <is>
-          <t>URSG-D-CP</t>
+          <t>EQL-1-4-C-4-C-E1</t>
         </is>
       </c>
       <c r="C115" s="9" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D115" s="9" t="inlineStr">
         <is>
-          <t>URSG,Distr,Cable Postioner</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
         </is>
       </c>
       <c r="E115" s="9" t="inlineStr">
@@ -4020,28 +4020,28 @@
       </c>
       <c r="G115" s="10" t="inlineStr"/>
       <c r="H115" s="11" t="n">
-        <v>14.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B116" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C116" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E116" s="12" t="inlineStr">
@@ -4054,18 +4054,18 @@
       </c>
       <c r="G116" s="13" t="inlineStr"/>
       <c r="H116" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D117" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E117" s="9" t="inlineStr">
@@ -4084,91 +4084,202 @@
         </is>
       </c>
       <c r="F117" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="10" t="inlineStr"/>
       <c r="H117" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H118" s="16" t="n">
-        <v>12977.06</v>
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B120" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/15/2025)</t>
-        </is>
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B122" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D122" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E122" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F122" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G122" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H122" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A122" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B122" s="12" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C122" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="12" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13" t="inlineStr"/>
+      <c r="H122" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-24-120-D1</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
@@ -4181,18 +4292,18 @@
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B124" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
@@ -4202,7 +4313,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E124" s="12" t="inlineStr">
@@ -4211,22 +4322,22 @@
         </is>
       </c>
       <c r="F124" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G124" s="13" t="inlineStr"/>
       <c r="H124" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
@@ -4236,7 +4347,7 @@
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4249,18 +4360,18 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B126" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
@@ -4270,7 +4381,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E126" s="12" t="inlineStr">
@@ -4279,37 +4390,844 @@
         </is>
       </c>
       <c r="F126" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="13" t="inlineStr"/>
       <c r="H126" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="15" t="inlineStr">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Point 61</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-1</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="12" t="inlineStr">
+        <is>
+          <t>Point 61</t>
+        </is>
+      </c>
+      <c r="B128" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C128" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13" t="inlineStr"/>
+      <c r="H128" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>Point 61</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C129" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" s="13" t="inlineStr"/>
+      <c r="H130" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="12" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B132" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C132" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" s="13" t="inlineStr"/>
+      <c r="H132" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B133" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-4</t>
+        </is>
+      </c>
+      <c r="C133" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D133" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="12" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B134" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C134" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13" t="inlineStr"/>
+      <c r="H134" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D135" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="inlineStr">
+        <is>
+          <t>ALB-W-18-A-1-F</t>
+        </is>
+      </c>
+      <c r="C136" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13" t="inlineStr"/>
+      <c r="H136" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>ALT-1000-HFMSG</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="inlineStr">
+        <is>
+          <t>1000W Halide Fldlt MultiVolt,Slipfit,Gry</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-D34</t>
+        </is>
+      </c>
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="13" t="inlineStr"/>
+      <c r="H138" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B139" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C139" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D139" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E139" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="10" t="inlineStr"/>
+      <c r="H139" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B140" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-D34</t>
+        </is>
+      </c>
+      <c r="C140" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E140" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" s="13" t="inlineStr"/>
+      <c r="H140" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-N-GH</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
+        </is>
+      </c>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="inlineStr">
+        <is>
+          <t>URSG-D-CP</t>
+        </is>
+      </c>
+      <c r="C142" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>URSG,Distr,Cable Postioner</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="13" t="inlineStr"/>
+      <c r="H142" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 61</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C144" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13" t="inlineStr"/>
+      <c r="H144" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H127" s="16" t="n">
-        <v>2206.72</v>
+      <c r="H145" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/15/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B149" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C149" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D149" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E149" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G149" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H149" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-24-120-D1</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 41</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H154" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A66:G66"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A148:H148"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="A154:G154"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>

--- a/generated_docs/WR_89754704_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89754704_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I154"/>
+  <dimension ref="A2:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>29336.65</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P80</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>1581.12</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +995,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,11 +1029,11 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,11 +1131,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1165,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="29">
@@ -1184,17 +1180,17 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1199,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>783.3200000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1237,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1403,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,32 +1471,32 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,32 +1505,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1539,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1573,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1607,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1641,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="43">
@@ -1660,17 +1656,17 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>CND-XL14</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>CND,eXtension Link 14in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,11 +1675,11 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="44">
@@ -1694,17 +1690,17 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SWI-15-INL1-900-FW-556-H</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>15kV,InLine,1Ph,900A,FireWdg, 477-556 Hk</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1709,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>1086.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,32 +1743,32 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-4-SNA</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#4,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1777,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1811,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,28 +1849,28 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,28 +1883,28 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-INL1-900-FW-556-H</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>15kV,InLine,1Ph,900A,FireWdg, 477-556 Hk</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,11 +1913,11 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1928,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,7 +1938,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1955,28 +1951,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-SNA</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Secondary Neutral Al</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1981,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2015,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,32 +2049,32 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>165.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,28 +2087,28 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,18 +2121,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2142,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,18 +2155,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2176,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2185,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2210,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,32 +2219,32 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2257,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2278,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,28 +2291,28 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNW-FW-477-INL-SWI</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Connector,Fired Wdg, 477 InLine SWI</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2321,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>133.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>DEG-4-SNA</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>DEG,#4,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2355,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,22 +2389,22 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2414,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,478 +2423,478 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E66" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="10" t="inlineStr"/>
-      <c r="H66" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B67" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C67" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D67" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E67" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13" t="inlineStr"/>
-      <c r="H67" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="10" t="n">
+      <c r="A66" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H66" s="16" t="n">
+        <v>14152.87</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/14/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G70" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-24-120-D1</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G68" s="10" t="inlineStr"/>
-      <c r="H68" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B69" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG10</t>
-        </is>
-      </c>
-      <c r="C69" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D69" s="12" t="inlineStr">
-        <is>
-          <t>SVD, Service Grip, 1/0</t>
-        </is>
-      </c>
-      <c r="E69" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G69" s="13" t="inlineStr"/>
-      <c r="H69" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G70" s="10" t="inlineStr"/>
-      <c r="H70" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B71" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E71" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="inlineStr"/>
-      <c r="H71" s="14" t="n">
-        <v>0</v>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>1581.12</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Point 47</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10" t="inlineStr"/>
-      <c r="H72" s="11" t="n">
-        <v>0</v>
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>1297.06</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>Point 47</t>
-        </is>
-      </c>
-      <c r="B73" s="12" t="inlineStr">
-        <is>
-          <t>CNW-FW-477-INL-SWI</t>
-        </is>
-      </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D73" s="12" t="inlineStr">
-        <is>
-          <t>Connector,Fired Wdg, 477 InLine SWI</t>
-        </is>
-      </c>
-      <c r="E73" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G73" s="13" t="inlineStr"/>
-      <c r="H73" s="14" t="n">
-        <v>0</v>
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>86.13</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Point 47</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>DEG-4-SNA</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>DEG,#4,Secondary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" s="10" t="inlineStr"/>
-      <c r="H74" s="11" t="n">
-        <v>0</v>
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DSC-24-120-D1</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>1581.12</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>Point 48</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>0</v>
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 61</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>648.53</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Point 48</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C76" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>0</v>
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 62</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>216.17</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>Point 48</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>0</v>
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>216.17</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H78" s="16" t="n">
-        <v>0</v>
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>ARR-10-R</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>ARR,10kV,Riser Pole</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>31.72</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/14/2025)</t>
-        </is>
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>BKT-ARML-S</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Steel</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>31.72</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B82" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D82" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E82" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F82" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G82" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>CND-SA477</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup,Ampact 477</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>12.49</v>
       </c>
     </row>
     <row r="83">
@@ -2909,7 +2905,7 @@
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-24-120-D1</t>
+          <t>DEC-795AL</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2919,7 +2915,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+          <t>DEC,#477 - #795 AL,AS</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2928,11 +2924,11 @@
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>0</v>
+        <v>2003.75</v>
       </c>
     </row>
     <row r="84">
@@ -2943,7 +2939,7 @@
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2953,7 +2949,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2966,7 +2962,7 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="85">
@@ -2977,7 +2973,7 @@
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2987,7 +2983,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2996,22 +2992,22 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>0</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>ANC-DSC-24-120-D1</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
@@ -3021,7 +3017,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -3030,22 +3026,22 @@
         </is>
       </c>
       <c r="F86" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -3055,7 +3051,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -3064,22 +3060,22 @@
         </is>
       </c>
       <c r="F87" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 62</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -3089,7 +3085,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -3098,11 +3094,11 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="89">
@@ -3113,7 +3109,7 @@
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3123,7 +3119,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3136,7 +3132,7 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="90">
@@ -3147,17 +3143,17 @@
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>URSR-2-DSO</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>URSR,2in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3166,32 +3162,32 @@
         </is>
       </c>
       <c r="F90" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>0</v>
+        <v>391.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3204,28 +3200,28 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3238,28 +3234,28 @@
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>BKT-ARML-S</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Steel</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3268,32 +3264,32 @@
         </is>
       </c>
       <c r="F93" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3302,32 +3298,32 @@
         </is>
       </c>
       <c r="F94" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G94" s="13" t="inlineStr"/>
       <c r="H94" s="14" t="n">
-        <v>0</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3336,32 +3332,32 @@
         </is>
       </c>
       <c r="F95" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>DEC-795AL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3370,32 +3366,32 @@
         </is>
       </c>
       <c r="F96" s="13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3408,28 +3404,28 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-E1</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E98" s="12" t="inlineStr">
@@ -3438,32 +3434,32 @@
         </is>
       </c>
       <c r="F98" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="13" t="inlineStr"/>
       <c r="H98" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3472,32 +3468,32 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E100" s="12" t="inlineStr">
@@ -3506,22 +3502,22 @@
         </is>
       </c>
       <c r="F100" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="13" t="inlineStr"/>
       <c r="H100" s="14" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
@@ -3531,31 +3527,31 @@
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E101" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F101" s="10" t="n">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
@@ -3565,7 +3561,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E102" s="12" t="inlineStr">
@@ -3574,17 +3570,17 @@
         </is>
       </c>
       <c r="F102" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" s="13" t="inlineStr"/>
       <c r="H102" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
@@ -3608,22 +3604,22 @@
         </is>
       </c>
       <c r="F103" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>POL-45-1</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3633,7 +3629,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pole,45ft,Class 1</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3646,18 +3642,18 @@
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -3667,7 +3663,7 @@
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3676,32 +3672,32 @@
         </is>
       </c>
       <c r="F105" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3710,32 +3706,32 @@
         </is>
       </c>
       <c r="F106" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3744,32 +3740,32 @@
         </is>
       </c>
       <c r="F107" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>URSR-2-DSO</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>URSR,2in,Dist Stand Off</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3782,18 +3778,18 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3803,7 +3799,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3816,28 +3812,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3850,28 +3846,28 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ALT-1000-HFMSG</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>1000W Halide Fldlt MultiVolt,Slipfit,Gry</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3880,32 +3876,32 @@
         </is>
       </c>
       <c r="F111" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E112" s="12" t="inlineStr">
@@ -3914,11 +3910,11 @@
         </is>
       </c>
       <c r="F112" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112" s="13" t="inlineStr"/>
       <c r="H112" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="113">
@@ -3929,7 +3925,7 @@
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>ANC-DHM-8-84-D34</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
@@ -3939,7 +3935,7 @@
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3948,11 +3944,11 @@
         </is>
       </c>
       <c r="F113" s="10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="114">
@@ -3963,7 +3959,7 @@
       </c>
       <c r="B114" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
@@ -3973,7 +3969,7 @@
       </c>
       <c r="D114" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E114" s="12" t="inlineStr">
@@ -3982,11 +3978,11 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" s="13" t="inlineStr"/>
       <c r="H114" s="14" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="115">
@@ -3997,7 +3993,7 @@
       </c>
       <c r="B115" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-E1</t>
+          <t>URSG-D-CP</t>
         </is>
       </c>
       <c r="C115" s="9" t="inlineStr">
@@ -4007,7 +4003,7 @@
       </c>
       <c r="D115" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
+          <t>URSG,Distr,Cable Postioner</t>
         </is>
       </c>
       <c r="E115" s="9" t="inlineStr">
@@ -4020,28 +4016,28 @@
       </c>
       <c r="G115" s="10" t="inlineStr"/>
       <c r="H115" s="11" t="n">
-        <v>0</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 61</t>
         </is>
       </c>
       <c r="B116" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C116" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E116" s="12" t="inlineStr">
@@ -4054,18 +4050,18 @@
       </c>
       <c r="G116" s="13" t="inlineStr"/>
       <c r="H116" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 62</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
@@ -4075,7 +4071,7 @@
       </c>
       <c r="D117" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E117" s="9" t="inlineStr">
@@ -4084,202 +4080,91 @@
         </is>
       </c>
       <c r="F117" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="10" t="inlineStr"/>
       <c r="H117" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B118" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C119" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D119" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F119" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="G119" s="10" t="inlineStr"/>
-      <c r="H119" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B120" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C120" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D120" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E120" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" s="13" t="inlineStr"/>
-      <c r="H120" s="14" t="n">
-        <v>0</v>
+      <c r="A118" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H118" s="16" t="n">
+        <v>12977.06</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B121" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C121" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D121" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E121" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G121" s="10" t="inlineStr"/>
-      <c r="H121" s="11" t="n">
-        <v>0</v>
+      <c r="A121" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/15/2025)</t>
+        </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B122" s="12" t="inlineStr">
-        <is>
-          <t>SWI-15-CO1-100-H</t>
-        </is>
-      </c>
-      <c r="C122" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D122" s="12" t="inlineStr">
-        <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
-        </is>
-      </c>
-      <c r="E122" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="13" t="inlineStr"/>
-      <c r="H122" s="14" t="n">
-        <v>0</v>
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E122" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G122" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H122" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>ANC-DSC-24-120-D1</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
@@ -4292,18 +4177,18 @@
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B124" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
@@ -4313,7 +4198,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E124" s="12" t="inlineStr">
@@ -4322,22 +4207,22 @@
         </is>
       </c>
       <c r="F124" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G124" s="13" t="inlineStr"/>
       <c r="H124" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
@@ -4347,7 +4232,7 @@
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4360,18 +4245,18 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>Point 61</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B126" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
@@ -4381,7 +4266,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E126" s="12" t="inlineStr">
@@ -4390,844 +4275,37 @@
         </is>
       </c>
       <c r="F126" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="13" t="inlineStr"/>
       <c r="H126" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>Point 61</t>
-        </is>
-      </c>
-      <c r="B127" s="9" t="inlineStr">
-        <is>
-          <t>POL-45-1</t>
-        </is>
-      </c>
-      <c r="C127" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="9" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E127" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="10" t="inlineStr"/>
-      <c r="H127" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="12" t="inlineStr">
-        <is>
-          <t>Point 61</t>
-        </is>
-      </c>
-      <c r="B128" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C128" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E128" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="13" t="inlineStr"/>
-      <c r="H128" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Point 61</t>
-        </is>
-      </c>
-      <c r="B129" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G129" s="10" t="inlineStr"/>
-      <c r="H129" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="12" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B130" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C130" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E130" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G130" s="13" t="inlineStr"/>
-      <c r="H130" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B131" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C131" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D131" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="10" t="inlineStr"/>
-      <c r="H131" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="12" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B132" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C132" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E132" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G132" s="13" t="inlineStr"/>
-      <c r="H132" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B133" s="9" t="inlineStr">
-        <is>
-          <t>POL-45-4</t>
-        </is>
-      </c>
-      <c r="C133" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D133" s="9" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="10" t="inlineStr"/>
-      <c r="H133" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="12" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B134" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C134" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D134" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E134" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="13" t="inlineStr"/>
-      <c r="H134" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B135" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C135" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D135" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G135" s="10" t="inlineStr"/>
-      <c r="H135" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B136" s="12" t="inlineStr">
-        <is>
-          <t>ALB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C136" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D136" s="12" t="inlineStr">
-        <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
-        </is>
-      </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="13" t="inlineStr"/>
-      <c r="H136" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B137" s="9" t="inlineStr">
-        <is>
-          <t>ALT-1000-HFMSG</t>
-        </is>
-      </c>
-      <c r="C137" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D137" s="9" t="inlineStr">
-        <is>
-          <t>1000W Halide Fldlt MultiVolt,Slipfit,Gry</t>
-        </is>
-      </c>
-      <c r="E137" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="10" t="inlineStr"/>
-      <c r="H137" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B138" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-D34</t>
-        </is>
-      </c>
-      <c r="C138" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="13" t="inlineStr"/>
-      <c r="H138" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B139" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C139" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D139" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E139" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="10" t="inlineStr"/>
-      <c r="H139" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B140" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-D34</t>
-        </is>
-      </c>
-      <c r="C140" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E140" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G140" s="13" t="inlineStr"/>
-      <c r="H140" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B141" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-N-GH</t>
-        </is>
-      </c>
-      <c r="C141" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
-        </is>
-      </c>
-      <c r="E141" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="10" t="inlineStr"/>
-      <c r="H141" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B142" s="12" t="inlineStr">
-        <is>
-          <t>URSG-D-CP</t>
-        </is>
-      </c>
-      <c r="C142" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="12" t="inlineStr">
-        <is>
-          <t>URSG,Distr,Cable Postioner</t>
-        </is>
-      </c>
-      <c r="E142" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="13" t="inlineStr"/>
-      <c r="H142" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="9" t="inlineStr">
-        <is>
-          <t>Point 61</t>
-        </is>
-      </c>
-      <c r="B143" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C143" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D143" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E143" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" s="10" t="inlineStr"/>
-      <c r="H143" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="12" t="inlineStr">
-        <is>
-          <t>Point 62</t>
-        </is>
-      </c>
-      <c r="B144" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C144" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D144" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E144" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="13" t="inlineStr"/>
-      <c r="H144" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="15" t="inlineStr">
+      <c r="A127" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H145" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/15/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B149" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C149" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D149" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E149" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F149" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G149" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H149" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DSC-24-120-D1</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Disc,24in,120in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B151" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C151" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Point 41</t>
-        </is>
-      </c>
-      <c r="B152" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C152" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B153" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C153" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D153" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E153" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="13" t="inlineStr"/>
-      <c r="H153" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H154" s="16" t="n">
-        <v>0</v>
+      <c r="H127" s="16" t="n">
+        <v>2206.72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A66:G66"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A148:H148"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A127:G127"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="A121:H121"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
